--- a/RúbricaDeEvaluación.xlsx
+++ b/RúbricaDeEvaluación.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luisa\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luisa\My Space\AREP\Lab02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1210F52-4F57-433F-A603-A3A8605D2907}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A39D18C6-5C28-44A9-85BF-871349345B1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{30389B9F-C7D3-A542-9567-157FC0B6A65B}"/>
   </bookViews>
@@ -606,10 +606,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7759D1B1-2861-2D40-A5C1-6BA06F856130}">
-  <dimension ref="A3:D55"/>
+  <dimension ref="A2:D55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -618,6 +618,11 @@
     <col min="2" max="3" width="23.796875" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+    </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>36</v>
